--- a/trame_fournisseurs.xlsx
+++ b/trame_fournisseurs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckodia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\achat.eiffageci\storage\app\trame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>condition _paement</t>
   </si>
   <si>
     <t>commentaire</t>
@@ -165,6 +162,9 @@
   <si>
     <t xml:space="preserve"> email_interlocuteur1</t>
   </si>
+  <si>
+    <t>condition _paiement</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +259,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FFFFCBBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCBBF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -315,15 +323,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCBBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCBBF"/>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -355,17 +355,17 @@
     <tableColumn id="2" name="Adresse_geographique"/>
     <tableColumn id="3" name="responsable"/>
     <tableColumn id="4" name="email"/>
-    <tableColumn id="5" name="condition _paement"/>
+    <tableColumn id="5" name="condition _paiement"/>
     <tableColumn id="6" name="commentaire"/>
-    <tableColumn id="7" name="interlocuteur" dataDxfId="6"/>
-    <tableColumn id="12" name=" type_interlocuteur" dataDxfId="5"/>
-    <tableColumn id="17" name="email_interlocuteur" dataDxfId="4"/>
-    <tableColumn id="14" name="interlocuteur1" dataDxfId="3"/>
-    <tableColumn id="16" name=" type_interlocuteur1" dataDxfId="2"/>
-    <tableColumn id="18" name=" email_interlocuteur1" dataDxfId="0"/>
-    <tableColumn id="8" name="domaine" dataDxfId="1"/>
-    <tableColumn id="9" name="domaine2" dataDxfId="8"/>
-    <tableColumn id="10" name="domaine3" dataDxfId="7"/>
+    <tableColumn id="7" name="interlocuteur" dataDxfId="8"/>
+    <tableColumn id="12" name=" type_interlocuteur" dataDxfId="7"/>
+    <tableColumn id="17" name="email_interlocuteur" dataDxfId="6"/>
+    <tableColumn id="14" name="interlocuteur1" dataDxfId="5"/>
+    <tableColumn id="16" name=" type_interlocuteur1" dataDxfId="4"/>
+    <tableColumn id="18" name=" email_interlocuteur1" dataDxfId="3"/>
+    <tableColumn id="8" name="domaine" dataDxfId="2"/>
+    <tableColumn id="9" name="domaine2" dataDxfId="1"/>
+    <tableColumn id="10" name="domaine3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,48 +668,48 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
       <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
         <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
@@ -719,12 +719,12 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
@@ -734,12 +734,12 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
@@ -749,12 +749,12 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="8"/>
@@ -764,12 +764,12 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
@@ -779,12 +779,12 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
@@ -794,12 +794,12 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="8"/>
@@ -809,12 +809,12 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="8"/>
@@ -824,12 +824,12 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="8"/>
@@ -839,12 +839,12 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
@@ -854,12 +854,12 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="8"/>
@@ -869,12 +869,12 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
@@ -884,12 +884,12 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
@@ -899,12 +899,12 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
@@ -914,12 +914,12 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
@@ -929,12 +929,12 @@
     <row r="17" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
@@ -944,12 +944,12 @@
     <row r="18" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
@@ -959,12 +959,12 @@
     <row r="19" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="8"/>
@@ -974,12 +974,12 @@
     <row r="20" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="8"/>
@@ -989,12 +989,12 @@
     <row r="21" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="8"/>
@@ -1004,12 +1004,12 @@
     <row r="22" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="8"/>
@@ -1019,12 +1019,12 @@
     <row r="23" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="8"/>
@@ -1034,12 +1034,12 @@
     <row r="24" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="8"/>
@@ -1049,12 +1049,12 @@
     <row r="25" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="8"/>
@@ -1064,12 +1064,12 @@
     <row r="26" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="8"/>
@@ -1079,12 +1079,12 @@
     <row r="27" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="8"/>
@@ -1094,12 +1094,12 @@
     <row r="28" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="8"/>
@@ -1109,12 +1109,12 @@
     <row r="29" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="8"/>
@@ -1124,12 +1124,12 @@
     <row r="30" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="8"/>
@@ -1139,12 +1139,12 @@
     <row r="31" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="8"/>
@@ -1154,12 +1154,12 @@
     <row r="32" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="8"/>
@@ -1169,12 +1169,12 @@
     <row r="33" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="8"/>
@@ -1184,12 +1184,12 @@
     <row r="34" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="8"/>
@@ -1199,12 +1199,12 @@
     <row r="35" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="8"/>
@@ -1214,12 +1214,12 @@
     <row r="36" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="8"/>
@@ -1229,12 +1229,12 @@
     <row r="37" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="8"/>
@@ -1244,12 +1244,12 @@
     <row r="38" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8"/>
@@ -1259,12 +1259,12 @@
     <row r="39" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="8"/>
@@ -1274,12 +1274,12 @@
     <row r="40" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="8"/>
@@ -1289,12 +1289,12 @@
     <row r="41" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="8"/>
@@ -1304,12 +1304,12 @@
     <row r="42" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="8"/>
@@ -1319,12 +1319,12 @@
     <row r="43" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="8"/>
@@ -1334,12 +1334,12 @@
     <row r="44" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="8"/>
@@ -1349,12 +1349,12 @@
     <row r="45" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="8"/>
@@ -1364,12 +1364,12 @@
     <row r="46" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="8"/>
@@ -1379,12 +1379,12 @@
     <row r="47" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="8"/>
@@ -1394,12 +1394,12 @@
     <row r="48" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="8"/>
@@ -1409,12 +1409,12 @@
     <row r="49" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="8"/>
@@ -1424,12 +1424,12 @@
     <row r="50" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="8"/>
@@ -1439,12 +1439,12 @@
     <row r="51" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="8"/>
@@ -1454,12 +1454,12 @@
     <row r="52" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="8"/>
@@ -1469,12 +1469,12 @@
     <row r="53" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="8"/>
@@ -1484,12 +1484,12 @@
     <row r="54" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
@@ -1499,12 +1499,12 @@
     <row r="55" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
@@ -1514,12 +1514,12 @@
     <row r="56" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="8"/>
@@ -1529,12 +1529,12 @@
     <row r="57" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="8"/>
@@ -1544,12 +1544,12 @@
     <row r="58" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="8"/>
@@ -1559,12 +1559,12 @@
     <row r="59" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G59" s="9"/>
       <c r="H59" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="8"/>
@@ -1574,12 +1574,12 @@
     <row r="60" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="8"/>
@@ -1589,12 +1589,12 @@
     <row r="61" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="8"/>
@@ -1604,12 +1604,12 @@
     <row r="62" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="8"/>
@@ -1619,12 +1619,12 @@
     <row r="63" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="8"/>
@@ -1634,12 +1634,12 @@
     <row r="64" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="8"/>
@@ -1649,12 +1649,12 @@
     <row r="65" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="8"/>
@@ -1664,12 +1664,12 @@
     <row r="66" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L66" s="9"/>
       <c r="M66" s="8"/>
@@ -1679,12 +1679,12 @@
     <row r="67" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="8"/>
@@ -1694,12 +1694,12 @@
     <row r="68" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="8"/>
@@ -1709,12 +1709,12 @@
     <row r="69" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="8"/>
@@ -1724,12 +1724,12 @@
     <row r="70" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="8"/>
@@ -1739,12 +1739,12 @@
     <row r="71" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="8"/>
@@ -1754,12 +1754,12 @@
     <row r="72" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
@@ -1769,12 +1769,12 @@
     <row r="73" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
@@ -1784,12 +1784,12 @@
     <row r="74" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="8"/>
@@ -1799,12 +1799,12 @@
     <row r="75" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="8"/>
@@ -1814,12 +1814,12 @@
     <row r="76" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="8"/>
@@ -1829,12 +1829,12 @@
     <row r="77" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="8"/>
@@ -1844,12 +1844,12 @@
     <row r="78" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
@@ -1859,12 +1859,12 @@
     <row r="79" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G79" s="9"/>
       <c r="H79" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
@@ -1874,12 +1874,12 @@
     <row r="80" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G80" s="9"/>
       <c r="H80" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="8"/>
@@ -1889,12 +1889,12 @@
     <row r="81" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G81" s="9"/>
       <c r="H81" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="8"/>
@@ -1904,12 +1904,12 @@
     <row r="82" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G82" s="9"/>
       <c r="H82" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="8"/>
@@ -1919,12 +1919,12 @@
     <row r="83" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G83" s="9"/>
       <c r="H83" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="8"/>
@@ -1934,12 +1934,12 @@
     <row r="84" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G84" s="9"/>
       <c r="H84" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="8"/>
@@ -1949,12 +1949,12 @@
     <row r="85" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G85" s="9"/>
       <c r="H85" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="8"/>
@@ -1964,12 +1964,12 @@
     <row r="86" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G86" s="9"/>
       <c r="H86" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="8"/>
@@ -1979,12 +1979,12 @@
     <row r="87" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G87" s="9"/>
       <c r="H87" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L87" s="9"/>
       <c r="M87" s="8"/>
@@ -1994,12 +1994,12 @@
     <row r="88" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G88" s="9"/>
       <c r="H88" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L88" s="9"/>
       <c r="M88" s="8"/>
@@ -2009,12 +2009,12 @@
     <row r="89" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L89" s="9"/>
       <c r="M89" s="8"/>
@@ -2024,12 +2024,12 @@
     <row r="90" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G90" s="9"/>
       <c r="H90" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L90" s="9"/>
       <c r="M90" s="8"/>
@@ -2039,12 +2039,12 @@
     <row r="91" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="8"/>
@@ -2054,12 +2054,12 @@
     <row r="92" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G92" s="9"/>
       <c r="H92" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L92" s="9"/>
       <c r="M92" s="8"/>
@@ -2069,12 +2069,12 @@
     <row r="93" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G93" s="9"/>
       <c r="H93" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L93" s="9"/>
       <c r="M93" s="8"/>
@@ -2084,12 +2084,12 @@
     <row r="94" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G94" s="9"/>
       <c r="H94" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L94" s="9"/>
       <c r="M94" s="8"/>
@@ -2099,12 +2099,12 @@
     <row r="95" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G95" s="9"/>
       <c r="H95" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L95" s="9"/>
       <c r="M95" s="8"/>
@@ -2114,12 +2114,12 @@
     <row r="96" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G96" s="9"/>
       <c r="H96" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L96" s="9"/>
       <c r="M96" s="8"/>
@@ -2129,12 +2129,12 @@
     <row r="97" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G97" s="9"/>
       <c r="H97" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L97" s="9"/>
       <c r="M97" s="8"/>
@@ -2144,12 +2144,12 @@
     <row r="98" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L98" s="9"/>
       <c r="M98" s="8"/>
@@ -2159,12 +2159,12 @@
     <row r="99" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L99" s="9"/>
       <c r="M99" s="8"/>
@@ -2174,12 +2174,12 @@
     <row r="100" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L100" s="9"/>
       <c r="M100" s="8"/>
@@ -2189,12 +2189,12 @@
     <row r="101" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L101" s="9"/>
       <c r="M101" s="8"/>
@@ -2204,12 +2204,12 @@
     <row r="102" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L102" s="9"/>
       <c r="M102" s="8"/>
@@ -2219,12 +2219,12 @@
     <row r="103" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G103" s="9"/>
       <c r="H103" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L103" s="9"/>
       <c r="M103" s="8"/>
@@ -2234,12 +2234,12 @@
     <row r="104" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G104" s="9"/>
       <c r="H104" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L104" s="9"/>
       <c r="M104" s="8"/>
@@ -2249,12 +2249,12 @@
     <row r="105" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G105" s="9"/>
       <c r="H105" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="8"/>
@@ -2264,12 +2264,12 @@
     <row r="106" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G106" s="9"/>
       <c r="H106" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="8"/>
@@ -2279,12 +2279,12 @@
     <row r="107" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G107" s="9"/>
       <c r="H107" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L107" s="9"/>
       <c r="M107" s="8"/>
@@ -2294,12 +2294,12 @@
     <row r="108" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G108" s="9"/>
       <c r="H108" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L108" s="9"/>
       <c r="M108" s="8"/>
@@ -2309,12 +2309,12 @@
     <row r="109" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L109" s="9"/>
       <c r="M109" s="8"/>
@@ -2324,12 +2324,12 @@
     <row r="110" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G110" s="9"/>
       <c r="H110" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L110" s="9"/>
       <c r="M110" s="8"/>
@@ -2339,12 +2339,12 @@
     <row r="111" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G111" s="9"/>
       <c r="H111" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L111" s="9"/>
       <c r="M111" s="8"/>
@@ -2354,12 +2354,12 @@
     <row r="112" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G112" s="9"/>
       <c r="H112" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L112" s="9"/>
       <c r="M112" s="8"/>
@@ -2369,12 +2369,12 @@
     <row r="113" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G113" s="9"/>
       <c r="H113" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L113" s="9"/>
       <c r="M113" s="8"/>
@@ -2384,12 +2384,12 @@
     <row r="114" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G114" s="9"/>
       <c r="H114" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L114" s="9"/>
       <c r="M114" s="8"/>
@@ -2399,12 +2399,12 @@
     <row r="115" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G115" s="9"/>
       <c r="H115" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L115" s="9"/>
       <c r="M115" s="8"/>
@@ -2414,12 +2414,12 @@
     <row r="116" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G116" s="9"/>
       <c r="H116" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L116" s="9"/>
       <c r="M116" s="8"/>
@@ -2429,12 +2429,12 @@
     <row r="117" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G117" s="9"/>
       <c r="H117" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L117" s="9"/>
       <c r="M117" s="8"/>
@@ -2444,12 +2444,12 @@
     <row r="118" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G118" s="9"/>
       <c r="H118" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L118" s="9"/>
       <c r="M118" s="8"/>
@@ -2459,12 +2459,12 @@
     <row r="119" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G119" s="9"/>
       <c r="H119" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L119" s="9"/>
       <c r="M119" s="8"/>
@@ -2474,12 +2474,12 @@
     <row r="120" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G120" s="9"/>
       <c r="H120" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L120" s="9"/>
       <c r="M120" s="8"/>
@@ -2489,12 +2489,12 @@
     <row r="121" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G121" s="9"/>
       <c r="H121" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L121" s="9"/>
       <c r="M121" s="8"/>
@@ -2504,12 +2504,12 @@
     <row r="122" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G122" s="9"/>
       <c r="H122" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L122" s="9"/>
       <c r="M122" s="8"/>
@@ -2519,12 +2519,12 @@
     <row r="123" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G123" s="9"/>
       <c r="H123" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L123" s="9"/>
       <c r="M123" s="8"/>
@@ -2534,12 +2534,12 @@
     <row r="124" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G124" s="9"/>
       <c r="H124" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L124" s="9"/>
       <c r="M124" s="8"/>
@@ -2549,12 +2549,12 @@
     <row r="125" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G125" s="9"/>
       <c r="H125" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L125" s="9"/>
       <c r="M125" s="8"/>
@@ -2564,12 +2564,12 @@
     <row r="126" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G126" s="9"/>
       <c r="H126" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L126" s="9"/>
       <c r="M126" s="8"/>
@@ -2579,12 +2579,12 @@
     <row r="127" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G127" s="9"/>
       <c r="H127" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L127" s="9"/>
       <c r="M127" s="8"/>
@@ -2594,12 +2594,12 @@
     <row r="128" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G128" s="9"/>
       <c r="H128" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L128" s="9"/>
       <c r="M128" s="8"/>
@@ -2609,12 +2609,12 @@
     <row r="129" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G129" s="9"/>
       <c r="H129" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L129" s="9"/>
       <c r="M129" s="8"/>
@@ -2624,12 +2624,12 @@
     <row r="130" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G130" s="9"/>
       <c r="H130" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L130" s="9"/>
       <c r="M130" s="8"/>
@@ -2639,12 +2639,12 @@
     <row r="131" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G131" s="9"/>
       <c r="H131" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L131" s="9"/>
       <c r="M131" s="8"/>
@@ -2654,12 +2654,12 @@
     <row r="132" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G132" s="9"/>
       <c r="H132" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L132" s="9"/>
       <c r="M132" s="8"/>
@@ -2669,12 +2669,12 @@
     <row r="133" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G133" s="9"/>
       <c r="H133" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L133" s="9"/>
       <c r="M133" s="8"/>
@@ -2684,12 +2684,12 @@
     <row r="134" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G134" s="9"/>
       <c r="H134" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L134" s="9"/>
       <c r="M134" s="8"/>
@@ -2699,12 +2699,12 @@
     <row r="135" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G135" s="9"/>
       <c r="H135" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L135" s="9"/>
       <c r="M135" s="8"/>
@@ -2714,12 +2714,12 @@
     <row r="136" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G136" s="9"/>
       <c r="H136" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L136" s="9"/>
       <c r="M136" s="8"/>
@@ -2729,12 +2729,12 @@
     <row r="137" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G137" s="9"/>
       <c r="H137" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L137" s="9"/>
       <c r="M137" s="8"/>
@@ -2744,12 +2744,12 @@
     <row r="138" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G138" s="9"/>
       <c r="H138" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L138" s="9"/>
       <c r="M138" s="8"/>
@@ -2759,12 +2759,12 @@
     <row r="139" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G139" s="9"/>
       <c r="H139" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L139" s="9"/>
       <c r="M139" s="8"/>
@@ -2774,12 +2774,12 @@
     <row r="140" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G140" s="9"/>
       <c r="H140" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L140" s="9"/>
       <c r="M140" s="8"/>
@@ -2789,12 +2789,12 @@
     <row r="141" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G141" s="9"/>
       <c r="H141" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L141" s="9"/>
       <c r="M141" s="8"/>
@@ -2804,12 +2804,12 @@
     <row r="142" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G142" s="9"/>
       <c r="H142" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L142" s="9"/>
       <c r="M142" s="8"/>
@@ -2819,12 +2819,12 @@
     <row r="143" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G143" s="9"/>
       <c r="H143" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L143" s="9"/>
       <c r="M143" s="8"/>
@@ -2834,12 +2834,12 @@
     <row r="144" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G144" s="9"/>
       <c r="H144" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L144" s="9"/>
       <c r="M144" s="8"/>
@@ -2849,12 +2849,12 @@
     <row r="145" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G145" s="9"/>
       <c r="H145" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L145" s="9"/>
       <c r="M145" s="8"/>
@@ -2864,12 +2864,12 @@
     <row r="146" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G146" s="9"/>
       <c r="H146" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L146" s="9"/>
       <c r="M146" s="8"/>
@@ -2879,12 +2879,12 @@
     <row r="147" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G147" s="9"/>
       <c r="H147" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L147" s="9"/>
       <c r="M147" s="8"/>
@@ -2894,12 +2894,12 @@
     <row r="148" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G148" s="9"/>
       <c r="H148" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L148" s="9"/>
       <c r="M148" s="8"/>
@@ -2909,12 +2909,12 @@
     <row r="149" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G149" s="9"/>
       <c r="H149" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L149" s="9"/>
       <c r="M149" s="8"/>
@@ -2924,12 +2924,12 @@
     <row r="150" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G150" s="9"/>
       <c r="H150" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L150" s="9"/>
       <c r="M150" s="8"/>
@@ -2939,12 +2939,12 @@
     <row r="151" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G151" s="9"/>
       <c r="H151" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L151" s="9"/>
       <c r="M151" s="8"/>
@@ -2954,12 +2954,12 @@
     <row r="152" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G152" s="9"/>
       <c r="H152" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L152" s="9"/>
       <c r="M152" s="8"/>
@@ -2969,12 +2969,12 @@
     <row r="153" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G153" s="9"/>
       <c r="H153" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L153" s="9"/>
       <c r="M153" s="8"/>
@@ -2984,12 +2984,12 @@
     <row r="154" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G154" s="9"/>
       <c r="H154" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L154" s="9"/>
       <c r="M154" s="8"/>
@@ -2999,12 +2999,12 @@
     <row r="155" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G155" s="9"/>
       <c r="H155" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L155" s="9"/>
       <c r="M155" s="8"/>
@@ -3014,12 +3014,12 @@
     <row r="156" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G156" s="9"/>
       <c r="H156" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L156" s="9"/>
       <c r="M156" s="8"/>
@@ -3029,12 +3029,12 @@
     <row r="157" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G157" s="9"/>
       <c r="H157" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
       <c r="K157" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L157" s="9"/>
       <c r="M157" s="8"/>
@@ -3044,12 +3044,12 @@
     <row r="158" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G158" s="9"/>
       <c r="H158" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L158" s="9"/>
       <c r="M158" s="8"/>
@@ -3059,12 +3059,12 @@
     <row r="159" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G159" s="9"/>
       <c r="H159" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
       <c r="K159" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L159" s="9"/>
       <c r="M159" s="8"/>
@@ -3074,12 +3074,12 @@
     <row r="160" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G160" s="9"/>
       <c r="H160" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L160" s="9"/>
       <c r="M160" s="8"/>
@@ -3089,12 +3089,12 @@
     <row r="161" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G161" s="9"/>
       <c r="H161" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L161" s="9"/>
       <c r="M161" s="8"/>
@@ -3104,12 +3104,12 @@
     <row r="162" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G162" s="9"/>
       <c r="H162" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
       <c r="K162" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L162" s="9"/>
       <c r="M162" s="8"/>
@@ -3119,12 +3119,12 @@
     <row r="163" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G163" s="9"/>
       <c r="H163" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
       <c r="K163" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L163" s="9"/>
       <c r="M163" s="8"/>
@@ -3134,12 +3134,12 @@
     <row r="164" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G164" s="9"/>
       <c r="H164" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
       <c r="K164" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L164" s="9"/>
       <c r="M164" s="8"/>
@@ -3149,12 +3149,12 @@
     <row r="165" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G165" s="9"/>
       <c r="H165" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
       <c r="K165" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L165" s="9"/>
       <c r="M165" s="8"/>
@@ -3164,12 +3164,12 @@
     <row r="166" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G166" s="9"/>
       <c r="H166" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
       <c r="K166" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L166" s="9"/>
       <c r="M166" s="8"/>
@@ -3179,12 +3179,12 @@
     <row r="167" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G167" s="9"/>
       <c r="H167" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
       <c r="K167" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L167" s="9"/>
       <c r="M167" s="8"/>
@@ -3194,12 +3194,12 @@
     <row r="168" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G168" s="9"/>
       <c r="H168" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L168" s="9"/>
       <c r="M168" s="8"/>
@@ -3209,12 +3209,12 @@
     <row r="169" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G169" s="9"/>
       <c r="H169" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
       <c r="K169" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L169" s="9"/>
       <c r="M169" s="8"/>
@@ -3224,12 +3224,12 @@
     <row r="170" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G170" s="9"/>
       <c r="H170" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
       <c r="K170" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L170" s="9"/>
       <c r="M170" s="8"/>
@@ -3239,12 +3239,12 @@
     <row r="171" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G171" s="9"/>
       <c r="H171" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
       <c r="K171" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L171" s="9"/>
       <c r="M171" s="8"/>
@@ -3254,12 +3254,12 @@
     <row r="172" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G172" s="9"/>
       <c r="H172" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
       <c r="K172" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L172" s="9"/>
       <c r="M172" s="8"/>
@@ -3269,12 +3269,12 @@
     <row r="173" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G173" s="9"/>
       <c r="H173" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
       <c r="K173" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L173" s="9"/>
       <c r="M173" s="8"/>
@@ -3284,12 +3284,12 @@
     <row r="174" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G174" s="9"/>
       <c r="H174" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
       <c r="K174" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L174" s="9"/>
       <c r="M174" s="8"/>
@@ -3299,12 +3299,12 @@
     <row r="175" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G175" s="9"/>
       <c r="H175" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
       <c r="K175" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L175" s="9"/>
       <c r="M175" s="8"/>
@@ -3314,12 +3314,12 @@
     <row r="176" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G176" s="9"/>
       <c r="H176" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L176" s="9"/>
       <c r="M176" s="8"/>
@@ -3329,12 +3329,12 @@
     <row r="177" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G177" s="9"/>
       <c r="H177" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
       <c r="K177" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L177" s="9"/>
       <c r="M177" s="8"/>
@@ -3344,12 +3344,12 @@
     <row r="178" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G178" s="9"/>
       <c r="H178" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
       <c r="K178" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L178" s="9"/>
       <c r="M178" s="8"/>
@@ -3359,12 +3359,12 @@
     <row r="179" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G179" s="9"/>
       <c r="H179" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
       <c r="K179" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L179" s="9"/>
       <c r="M179" s="8"/>
@@ -3374,12 +3374,12 @@
     <row r="180" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G180" s="9"/>
       <c r="H180" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
       <c r="K180" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L180" s="9"/>
       <c r="M180" s="8"/>
@@ -3389,12 +3389,12 @@
     <row r="181" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G181" s="9"/>
       <c r="H181" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
       <c r="K181" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L181" s="9"/>
       <c r="M181" s="8"/>
@@ -3404,12 +3404,12 @@
     <row r="182" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G182" s="9"/>
       <c r="H182" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
       <c r="K182" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L182" s="9"/>
       <c r="M182" s="8"/>
@@ -3419,12 +3419,12 @@
     <row r="183" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G183" s="9"/>
       <c r="H183" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
       <c r="K183" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L183" s="9"/>
       <c r="M183" s="8"/>
@@ -3434,12 +3434,12 @@
     <row r="184" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G184" s="9"/>
       <c r="H184" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L184" s="9"/>
       <c r="M184" s="8"/>
@@ -3449,12 +3449,12 @@
     <row r="185" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G185" s="9"/>
       <c r="H185" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
       <c r="K185" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L185" s="9"/>
       <c r="M185" s="8"/>
@@ -3464,12 +3464,12 @@
     <row r="186" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G186" s="9"/>
       <c r="H186" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
       <c r="K186" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L186" s="9"/>
       <c r="M186" s="8"/>
@@ -3479,12 +3479,12 @@
     <row r="187" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G187" s="9"/>
       <c r="H187" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
       <c r="K187" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L187" s="9"/>
       <c r="M187" s="8"/>
@@ -3494,12 +3494,12 @@
     <row r="188" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G188" s="9"/>
       <c r="H188" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
       <c r="K188" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L188" s="9"/>
       <c r="M188" s="8"/>
@@ -3509,12 +3509,12 @@
     <row r="189" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G189" s="9"/>
       <c r="H189" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
       <c r="K189" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L189" s="9"/>
       <c r="M189" s="8"/>
@@ -3524,12 +3524,12 @@
     <row r="190" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G190" s="9"/>
       <c r="H190" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
       <c r="K190" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L190" s="9"/>
       <c r="M190" s="8"/>
@@ -3539,12 +3539,12 @@
     <row r="191" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G191" s="9"/>
       <c r="H191" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
       <c r="K191" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L191" s="9"/>
       <c r="M191" s="8"/>
@@ -3554,12 +3554,12 @@
     <row r="192" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G192" s="9"/>
       <c r="H192" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
       <c r="K192" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L192" s="9"/>
       <c r="M192" s="8"/>
@@ -3569,12 +3569,12 @@
     <row r="193" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G193" s="9"/>
       <c r="H193" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
       <c r="K193" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L193" s="9"/>
       <c r="M193" s="8"/>
@@ -3584,12 +3584,12 @@
     <row r="194" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G194" s="9"/>
       <c r="H194" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
       <c r="K194" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L194" s="9"/>
       <c r="M194" s="8"/>
@@ -3599,12 +3599,12 @@
     <row r="195" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G195" s="9"/>
       <c r="H195" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
       <c r="K195" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L195" s="9"/>
       <c r="M195" s="8"/>
@@ -3614,12 +3614,12 @@
     <row r="196" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G196" s="9"/>
       <c r="H196" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
       <c r="K196" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L196" s="9"/>
       <c r="M196" s="8"/>
@@ -3629,12 +3629,12 @@
     <row r="197" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G197" s="9"/>
       <c r="H197" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
       <c r="K197" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L197" s="9"/>
       <c r="M197" s="8"/>
@@ -3644,12 +3644,12 @@
     <row r="198" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G198" s="9"/>
       <c r="H198" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
       <c r="K198" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L198" s="9"/>
       <c r="M198" s="8"/>
@@ -3659,12 +3659,12 @@
     <row r="199" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G199" s="9"/>
       <c r="H199" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
       <c r="K199" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L199" s="9"/>
       <c r="M199" s="8"/>
@@ -3674,12 +3674,12 @@
     <row r="200" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G200" s="9"/>
       <c r="H200" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
       <c r="K200" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L200" s="9"/>
       <c r="M200" s="8"/>
@@ -3689,12 +3689,12 @@
     <row r="201" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G201" s="9"/>
       <c r="H201" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
       <c r="K201" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L201" s="9"/>
       <c r="M201" s="8"/>
@@ -3704,12 +3704,12 @@
     <row r="202" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G202" s="9"/>
       <c r="H202" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
       <c r="K202" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L202" s="9"/>
       <c r="M202" s="8"/>
@@ -3719,12 +3719,12 @@
     <row r="203" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G203" s="9"/>
       <c r="H203" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
       <c r="K203" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L203" s="9"/>
       <c r="M203" s="8"/>
@@ -3734,12 +3734,12 @@
     <row r="204" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G204" s="9"/>
       <c r="H204" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I204" s="9"/>
       <c r="J204" s="9"/>
       <c r="K204" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L204" s="9"/>
       <c r="M204" s="8"/>
@@ -3749,12 +3749,12 @@
     <row r="205" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G205" s="9"/>
       <c r="H205" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
       <c r="K205" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L205" s="9"/>
       <c r="M205" s="8"/>
@@ -3764,12 +3764,12 @@
     <row r="206" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G206" s="9"/>
       <c r="H206" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
       <c r="K206" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L206" s="9"/>
       <c r="M206" s="8"/>
@@ -3779,12 +3779,12 @@
     <row r="207" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G207" s="9"/>
       <c r="H207" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I207" s="9"/>
       <c r="J207" s="9"/>
       <c r="K207" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L207" s="9"/>
       <c r="M207" s="8"/>
@@ -3794,12 +3794,12 @@
     <row r="208" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G208" s="9"/>
       <c r="H208" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
       <c r="K208" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L208" s="9"/>
       <c r="M208" s="8"/>
@@ -3809,12 +3809,12 @@
     <row r="209" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G209" s="9"/>
       <c r="H209" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
       <c r="K209" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L209" s="9"/>
       <c r="M209" s="8"/>
@@ -3824,12 +3824,12 @@
     <row r="210" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G210" s="9"/>
       <c r="H210" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I210" s="9"/>
       <c r="J210" s="9"/>
       <c r="K210" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L210" s="9"/>
       <c r="M210" s="8"/>
@@ -3839,12 +3839,12 @@
     <row r="211" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G211" s="9"/>
       <c r="H211" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
       <c r="K211" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L211" s="9"/>
       <c r="M211" s="8"/>
@@ -3854,12 +3854,12 @@
     <row r="212" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G212" s="9"/>
       <c r="H212" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
       <c r="K212" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L212" s="9"/>
       <c r="M212" s="8"/>
@@ -3869,12 +3869,12 @@
     <row r="213" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G213" s="9"/>
       <c r="H213" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I213" s="9"/>
       <c r="J213" s="9"/>
       <c r="K213" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L213" s="9"/>
       <c r="M213" s="8"/>
@@ -3884,12 +3884,12 @@
     <row r="214" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G214" s="9"/>
       <c r="H214" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
       <c r="K214" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L214" s="9"/>
       <c r="M214" s="8"/>
@@ -3899,12 +3899,12 @@
     <row r="215" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G215" s="9"/>
       <c r="H215" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
       <c r="K215" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L215" s="9"/>
       <c r="M215" s="8"/>
@@ -3914,12 +3914,12 @@
     <row r="216" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G216" s="9"/>
       <c r="H216" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
       <c r="K216" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L216" s="9"/>
       <c r="M216" s="8"/>
@@ -3929,12 +3929,12 @@
     <row r="217" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G217" s="9"/>
       <c r="H217" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
       <c r="K217" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L217" s="9"/>
       <c r="M217" s="8"/>
@@ -3944,12 +3944,12 @@
     <row r="218" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G218" s="9"/>
       <c r="H218" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
       <c r="K218" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L218" s="9"/>
       <c r="M218" s="8"/>
@@ -3959,12 +3959,12 @@
     <row r="219" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G219" s="9"/>
       <c r="H219" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I219" s="9"/>
       <c r="J219" s="9"/>
       <c r="K219" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L219" s="9"/>
       <c r="M219" s="8"/>
@@ -3974,12 +3974,12 @@
     <row r="220" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G220" s="9"/>
       <c r="H220" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
       <c r="K220" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L220" s="9"/>
       <c r="M220" s="8"/>
@@ -3989,12 +3989,12 @@
     <row r="221" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G221" s="9"/>
       <c r="H221" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I221" s="9"/>
       <c r="J221" s="9"/>
       <c r="K221" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L221" s="9"/>
       <c r="M221" s="8"/>
@@ -4004,12 +4004,12 @@
     <row r="222" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G222" s="9"/>
       <c r="H222" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I222" s="9"/>
       <c r="J222" s="9"/>
       <c r="K222" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L222" s="9"/>
       <c r="M222" s="8"/>
@@ -4019,12 +4019,12 @@
     <row r="223" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G223" s="9"/>
       <c r="H223" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
       <c r="K223" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L223" s="9"/>
       <c r="M223" s="8"/>
@@ -4034,12 +4034,12 @@
     <row r="224" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G224" s="9"/>
       <c r="H224" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
       <c r="K224" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L224" s="9"/>
       <c r="M224" s="8"/>
@@ -4049,12 +4049,12 @@
     <row r="225" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G225" s="9"/>
       <c r="H225" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I225" s="9"/>
       <c r="J225" s="9"/>
       <c r="K225" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L225" s="9"/>
       <c r="M225" s="8"/>
@@ -4064,12 +4064,12 @@
     <row r="226" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G226" s="9"/>
       <c r="H226" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
       <c r="K226" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L226" s="9"/>
       <c r="M226" s="8"/>
@@ -4079,12 +4079,12 @@
     <row r="227" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G227" s="9"/>
       <c r="H227" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I227" s="9"/>
       <c r="J227" s="9"/>
       <c r="K227" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L227" s="9"/>
       <c r="M227" s="8"/>
@@ -4094,12 +4094,12 @@
     <row r="228" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G228" s="9"/>
       <c r="H228" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I228" s="9"/>
       <c r="J228" s="9"/>
       <c r="K228" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L228" s="9"/>
       <c r="M228" s="8"/>
@@ -4109,12 +4109,12 @@
     <row r="229" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G229" s="9"/>
       <c r="H229" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I229" s="9"/>
       <c r="J229" s="9"/>
       <c r="K229" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L229" s="9"/>
       <c r="M229" s="8"/>
@@ -4124,12 +4124,12 @@
     <row r="230" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G230" s="9"/>
       <c r="H230" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I230" s="9"/>
       <c r="J230" s="9"/>
       <c r="K230" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L230" s="9"/>
       <c r="M230" s="8"/>
@@ -4139,12 +4139,12 @@
     <row r="231" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G231" s="9"/>
       <c r="H231" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I231" s="9"/>
       <c r="J231" s="9"/>
       <c r="K231" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L231" s="9"/>
       <c r="M231" s="8"/>
@@ -4154,12 +4154,12 @@
     <row r="232" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G232" s="9"/>
       <c r="H232" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I232" s="9"/>
       <c r="J232" s="9"/>
       <c r="K232" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L232" s="9"/>
       <c r="M232" s="8"/>
@@ -4169,12 +4169,12 @@
     <row r="233" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G233" s="9"/>
       <c r="H233" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
       <c r="K233" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L233" s="9"/>
       <c r="M233" s="8"/>
@@ -4184,12 +4184,12 @@
     <row r="234" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G234" s="9"/>
       <c r="H234" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I234" s="9"/>
       <c r="J234" s="9"/>
       <c r="K234" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L234" s="9"/>
       <c r="M234" s="8"/>
@@ -4199,12 +4199,12 @@
     <row r="235" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G235" s="9"/>
       <c r="H235" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
       <c r="K235" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L235" s="9"/>
       <c r="M235" s="8"/>
@@ -4214,12 +4214,12 @@
     <row r="236" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G236" s="9"/>
       <c r="H236" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I236" s="9"/>
       <c r="J236" s="9"/>
       <c r="K236" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L236" s="9"/>
       <c r="M236" s="8"/>
@@ -4229,12 +4229,12 @@
     <row r="237" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G237" s="9"/>
       <c r="H237" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
       <c r="K237" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L237" s="9"/>
       <c r="M237" s="8"/>
@@ -4244,12 +4244,12 @@
     <row r="238" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G238" s="9"/>
       <c r="H238" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
       <c r="K238" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L238" s="9"/>
       <c r="M238" s="8"/>
@@ -4259,12 +4259,12 @@
     <row r="239" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G239" s="9"/>
       <c r="H239" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
       <c r="K239" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L239" s="9"/>
       <c r="M239" s="8"/>
@@ -4274,12 +4274,12 @@
     <row r="240" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G240" s="9"/>
       <c r="H240" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I240" s="9"/>
       <c r="J240" s="9"/>
       <c r="K240" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L240" s="9"/>
       <c r="M240" s="8"/>
@@ -4289,12 +4289,12 @@
     <row r="241" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G241" s="9"/>
       <c r="H241" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I241" s="9"/>
       <c r="J241" s="9"/>
       <c r="K241" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L241" s="9"/>
       <c r="M241" s="8"/>
@@ -4304,12 +4304,12 @@
     <row r="242" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G242" s="9"/>
       <c r="H242" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
       <c r="K242" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L242" s="9"/>
       <c r="M242" s="8"/>
@@ -4319,12 +4319,12 @@
     <row r="243" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G243" s="9"/>
       <c r="H243" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
       <c r="K243" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L243" s="9"/>
       <c r="M243" s="8"/>
@@ -4334,12 +4334,12 @@
     <row r="244" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G244" s="9"/>
       <c r="H244" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
       <c r="K244" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L244" s="9"/>
       <c r="M244" s="8"/>
@@ -4349,12 +4349,12 @@
     <row r="245" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G245" s="9"/>
       <c r="H245" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
       <c r="K245" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L245" s="9"/>
       <c r="M245" s="8"/>
@@ -4364,12 +4364,12 @@
     <row r="246" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G246" s="9"/>
       <c r="H246" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I246" s="9"/>
       <c r="J246" s="9"/>
       <c r="K246" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L246" s="9"/>
       <c r="M246" s="8"/>
@@ -4379,12 +4379,12 @@
     <row r="247" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G247" s="9"/>
       <c r="H247" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
       <c r="K247" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L247" s="9"/>
       <c r="M247" s="8"/>
@@ -4394,12 +4394,12 @@
     <row r="248" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G248" s="9"/>
       <c r="H248" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I248" s="9"/>
       <c r="J248" s="9"/>
       <c r="K248" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L248" s="9"/>
       <c r="M248" s="8"/>
@@ -4409,12 +4409,12 @@
     <row r="249" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G249" s="9"/>
       <c r="H249" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I249" s="9"/>
       <c r="J249" s="9"/>
       <c r="K249" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L249" s="9"/>
       <c r="M249" s="8"/>
@@ -4424,12 +4424,12 @@
     <row r="250" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G250" s="9"/>
       <c r="H250" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
       <c r="K250" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L250" s="9"/>
       <c r="M250" s="8"/>
@@ -4439,12 +4439,12 @@
     <row r="251" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G251" s="9"/>
       <c r="H251" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I251" s="9"/>
       <c r="J251" s="9"/>
       <c r="K251" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L251" s="9"/>
       <c r="M251" s="8"/>
@@ -4454,12 +4454,12 @@
     <row r="252" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G252" s="9"/>
       <c r="H252" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I252" s="9"/>
       <c r="J252" s="9"/>
       <c r="K252" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L252" s="9"/>
       <c r="M252" s="8"/>
@@ -4469,12 +4469,12 @@
     <row r="253" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G253" s="9"/>
       <c r="H253" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I253" s="9"/>
       <c r="J253" s="9"/>
       <c r="K253" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L253" s="9"/>
       <c r="M253" s="8"/>
@@ -4484,12 +4484,12 @@
     <row r="254" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G254" s="9"/>
       <c r="H254" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I254" s="9"/>
       <c r="J254" s="9"/>
       <c r="K254" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L254" s="9"/>
       <c r="M254" s="8"/>
@@ -4499,12 +4499,12 @@
     <row r="255" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G255" s="9"/>
       <c r="H255" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
       <c r="K255" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L255" s="9"/>
       <c r="M255" s="8"/>
@@ -4514,12 +4514,12 @@
     <row r="256" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G256" s="9"/>
       <c r="H256" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
       <c r="K256" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L256" s="9"/>
       <c r="M256" s="8"/>
@@ -4529,12 +4529,12 @@
     <row r="257" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G257" s="9"/>
       <c r="H257" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I257" s="9"/>
       <c r="J257" s="9"/>
       <c r="K257" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L257" s="9"/>
       <c r="M257" s="8"/>
@@ -4544,12 +4544,12 @@
     <row r="258" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G258" s="9"/>
       <c r="H258" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I258" s="9"/>
       <c r="J258" s="9"/>
       <c r="K258" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L258" s="9"/>
       <c r="M258" s="8"/>
@@ -4559,12 +4559,12 @@
     <row r="259" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G259" s="9"/>
       <c r="H259" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
       <c r="K259" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L259" s="9"/>
       <c r="M259" s="8"/>
@@ -4574,12 +4574,12 @@
     <row r="260" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G260" s="9"/>
       <c r="H260" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I260" s="9"/>
       <c r="J260" s="9"/>
       <c r="K260" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L260" s="9"/>
       <c r="M260" s="8"/>
@@ -4589,12 +4589,12 @@
     <row r="261" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G261" s="9"/>
       <c r="H261" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
       <c r="K261" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L261" s="9"/>
       <c r="M261" s="8"/>
@@ -4604,12 +4604,12 @@
     <row r="262" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G262" s="9"/>
       <c r="H262" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
       <c r="K262" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L262" s="9"/>
       <c r="M262" s="8"/>
@@ -4619,12 +4619,12 @@
     <row r="263" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G263" s="9"/>
       <c r="H263" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
       <c r="K263" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L263" s="9"/>
       <c r="M263" s="8"/>
@@ -4634,12 +4634,12 @@
     <row r="264" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G264" s="9"/>
       <c r="H264" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
       <c r="K264" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L264" s="9"/>
       <c r="M264" s="8"/>
@@ -4649,12 +4649,12 @@
     <row r="265" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G265" s="9"/>
       <c r="H265" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I265" s="9"/>
       <c r="J265" s="9"/>
       <c r="K265" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L265" s="9"/>
       <c r="M265" s="8"/>
@@ -4664,12 +4664,12 @@
     <row r="266" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G266" s="9"/>
       <c r="H266" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I266" s="9"/>
       <c r="J266" s="9"/>
       <c r="K266" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L266" s="9"/>
       <c r="M266" s="8"/>
@@ -4679,12 +4679,12 @@
     <row r="267" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G267" s="9"/>
       <c r="H267" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I267" s="9"/>
       <c r="J267" s="9"/>
       <c r="K267" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L267" s="9"/>
       <c r="M267" s="8"/>
@@ -4694,12 +4694,12 @@
     <row r="268" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G268" s="9"/>
       <c r="H268" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
       <c r="K268" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L268" s="9"/>
       <c r="M268" s="8"/>
@@ -4709,12 +4709,12 @@
     <row r="269" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G269" s="9"/>
       <c r="H269" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I269" s="9"/>
       <c r="J269" s="9"/>
       <c r="K269" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L269" s="9"/>
       <c r="M269" s="8"/>
@@ -4724,12 +4724,12 @@
     <row r="270" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G270" s="9"/>
       <c r="H270" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
       <c r="K270" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L270" s="9"/>
       <c r="M270" s="8"/>
@@ -4739,12 +4739,12 @@
     <row r="271" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G271" s="9"/>
       <c r="H271" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
       <c r="K271" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L271" s="9"/>
       <c r="M271" s="8"/>
@@ -4754,12 +4754,12 @@
     <row r="272" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G272" s="9"/>
       <c r="H272" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
       <c r="K272" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L272" s="9"/>
       <c r="M272" s="8"/>
@@ -4769,12 +4769,12 @@
     <row r="273" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G273" s="9"/>
       <c r="H273" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
       <c r="K273" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L273" s="9"/>
       <c r="M273" s="8"/>
@@ -4784,12 +4784,12 @@
     <row r="274" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G274" s="9"/>
       <c r="H274" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
       <c r="K274" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L274" s="9"/>
       <c r="M274" s="8"/>
@@ -4799,12 +4799,12 @@
     <row r="275" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G275" s="9"/>
       <c r="H275" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
       <c r="K275" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L275" s="9"/>
       <c r="M275" s="8"/>
@@ -4814,12 +4814,12 @@
     <row r="276" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G276" s="9"/>
       <c r="H276" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
       <c r="K276" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L276" s="9"/>
       <c r="M276" s="8"/>
@@ -4829,12 +4829,12 @@
     <row r="277" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G277" s="9"/>
       <c r="H277" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
       <c r="K277" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L277" s="9"/>
       <c r="M277" s="8"/>
@@ -4844,12 +4844,12 @@
     <row r="278" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G278" s="9"/>
       <c r="H278" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I278" s="9"/>
       <c r="J278" s="9"/>
       <c r="K278" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L278" s="9"/>
       <c r="M278" s="8"/>
@@ -4859,12 +4859,12 @@
     <row r="279" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G279" s="9"/>
       <c r="H279" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I279" s="9"/>
       <c r="J279" s="9"/>
       <c r="K279" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L279" s="9"/>
       <c r="M279" s="8"/>
@@ -4874,12 +4874,12 @@
     <row r="280" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G280" s="9"/>
       <c r="H280" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
       <c r="K280" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L280" s="9"/>
       <c r="M280" s="8"/>
@@ -4889,12 +4889,12 @@
     <row r="281" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G281" s="9"/>
       <c r="H281" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
       <c r="K281" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L281" s="9"/>
       <c r="M281" s="8"/>
@@ -4904,12 +4904,12 @@
     <row r="282" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G282" s="9"/>
       <c r="H282" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
       <c r="K282" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L282" s="9"/>
       <c r="M282" s="8"/>
@@ -4919,12 +4919,12 @@
     <row r="283" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G283" s="9"/>
       <c r="H283" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
       <c r="K283" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L283" s="9"/>
       <c r="M283" s="8"/>
@@ -4934,12 +4934,12 @@
     <row r="284" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G284" s="9"/>
       <c r="H284" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
       <c r="K284" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L284" s="9"/>
       <c r="M284" s="8"/>
@@ -4949,12 +4949,12 @@
     <row r="285" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G285" s="9"/>
       <c r="H285" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
       <c r="K285" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L285" s="9"/>
       <c r="M285" s="8"/>
@@ -4964,12 +4964,12 @@
     <row r="286" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G286" s="9"/>
       <c r="H286" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
       <c r="K286" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L286" s="9"/>
       <c r="M286" s="8"/>
@@ -4979,12 +4979,12 @@
     <row r="287" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G287" s="9"/>
       <c r="H287" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
       <c r="K287" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L287" s="9"/>
       <c r="M287" s="8"/>
@@ -4994,12 +4994,12 @@
     <row r="288" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G288" s="9"/>
       <c r="H288" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
       <c r="K288" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L288" s="9"/>
       <c r="M288" s="8"/>
@@ -5009,12 +5009,12 @@
     <row r="289" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G289" s="9"/>
       <c r="H289" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
       <c r="K289" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L289" s="9"/>
       <c r="M289" s="8"/>
@@ -5024,12 +5024,12 @@
     <row r="290" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G290" s="9"/>
       <c r="H290" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
       <c r="K290" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L290" s="9"/>
       <c r="M290" s="8"/>
@@ -5039,12 +5039,12 @@
     <row r="291" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G291" s="9"/>
       <c r="H291" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
       <c r="K291" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L291" s="9"/>
       <c r="M291" s="8"/>
@@ -5054,12 +5054,12 @@
     <row r="292" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G292" s="9"/>
       <c r="H292" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
       <c r="K292" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L292" s="9"/>
       <c r="M292" s="8"/>
@@ -5069,12 +5069,12 @@
     <row r="293" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G293" s="9"/>
       <c r="H293" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I293" s="9"/>
       <c r="J293" s="9"/>
       <c r="K293" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L293" s="9"/>
       <c r="M293" s="8"/>
@@ -5084,12 +5084,12 @@
     <row r="294" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G294" s="9"/>
       <c r="H294" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I294" s="9"/>
       <c r="J294" s="9"/>
       <c r="K294" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L294" s="9"/>
       <c r="M294" s="8"/>
@@ -5099,12 +5099,12 @@
     <row r="295" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G295" s="9"/>
       <c r="H295" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
       <c r="K295" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L295" s="9"/>
       <c r="M295" s="8"/>
@@ -5114,12 +5114,12 @@
     <row r="296" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G296" s="9"/>
       <c r="H296" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
       <c r="K296" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L296" s="9"/>
       <c r="M296" s="8"/>
@@ -5129,12 +5129,12 @@
     <row r="297" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G297" s="9"/>
       <c r="H297" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
       <c r="K297" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L297" s="9"/>
       <c r="M297" s="8"/>
@@ -5144,12 +5144,12 @@
     <row r="298" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G298" s="9"/>
       <c r="H298" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
       <c r="K298" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L298" s="9"/>
       <c r="M298" s="8"/>
@@ -5159,12 +5159,12 @@
     <row r="299" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G299" s="9"/>
       <c r="H299" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
       <c r="K299" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L299" s="9"/>
       <c r="M299" s="8"/>
@@ -5174,12 +5174,12 @@
     <row r="300" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G300" s="9"/>
       <c r="H300" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
       <c r="K300" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L300" s="9"/>
       <c r="M300" s="8"/>
@@ -5189,12 +5189,12 @@
     <row r="301" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G301" s="9"/>
       <c r="H301" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
       <c r="K301" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L301" s="9"/>
       <c r="M301" s="8"/>
@@ -5204,12 +5204,12 @@
     <row r="302" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G302" s="9"/>
       <c r="H302" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
       <c r="K302" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L302" s="9"/>
       <c r="M302" s="8"/>
@@ -5219,12 +5219,12 @@
     <row r="303" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G303" s="9"/>
       <c r="H303" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I303" s="9"/>
       <c r="J303" s="9"/>
       <c r="K303" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L303" s="9"/>
       <c r="M303" s="8"/>
@@ -5234,12 +5234,12 @@
     <row r="304" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G304" s="9"/>
       <c r="H304" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
       <c r="K304" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L304" s="9"/>
       <c r="M304" s="8"/>
@@ -5249,12 +5249,12 @@
     <row r="305" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G305" s="9"/>
       <c r="H305" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I305" s="9"/>
       <c r="J305" s="9"/>
       <c r="K305" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L305" s="9"/>
       <c r="M305" s="8"/>
@@ -5264,12 +5264,12 @@
     <row r="306" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G306" s="9"/>
       <c r="H306" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
       <c r="K306" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L306" s="9"/>
       <c r="M306" s="8"/>
@@ -5279,12 +5279,12 @@
     <row r="307" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G307" s="9"/>
       <c r="H307" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
       <c r="K307" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L307" s="9"/>
       <c r="M307" s="8"/>
@@ -5294,12 +5294,12 @@
     <row r="308" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G308" s="9"/>
       <c r="H308" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I308" s="9"/>
       <c r="J308" s="9"/>
       <c r="K308" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L308" s="9"/>
       <c r="M308" s="8"/>
@@ -5309,12 +5309,12 @@
     <row r="309" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G309" s="9"/>
       <c r="H309" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I309" s="9"/>
       <c r="J309" s="9"/>
       <c r="K309" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L309" s="9"/>
       <c r="M309" s="8"/>
@@ -5324,12 +5324,12 @@
     <row r="310" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G310" s="9"/>
       <c r="H310" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
       <c r="K310" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L310" s="9"/>
       <c r="M310" s="8"/>
@@ -5339,12 +5339,12 @@
     <row r="311" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G311" s="9"/>
       <c r="H311" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
       <c r="K311" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L311" s="9"/>
       <c r="M311" s="8"/>
@@ -5354,12 +5354,12 @@
     <row r="312" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G312" s="9"/>
       <c r="H312" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I312" s="9"/>
       <c r="J312" s="9"/>
       <c r="K312" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L312" s="9"/>
       <c r="M312" s="8"/>
@@ -5369,12 +5369,12 @@
     <row r="313" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G313" s="9"/>
       <c r="H313" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
       <c r="K313" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L313" s="9"/>
       <c r="M313" s="8"/>
@@ -5384,12 +5384,12 @@
     <row r="314" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G314" s="9"/>
       <c r="H314" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I314" s="9"/>
       <c r="J314" s="9"/>
       <c r="K314" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L314" s="9"/>
       <c r="M314" s="8"/>
@@ -5399,12 +5399,12 @@
     <row r="315" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G315" s="9"/>
       <c r="H315" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
       <c r="K315" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L315" s="9"/>
       <c r="M315" s="8"/>
@@ -5414,12 +5414,12 @@
     <row r="316" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G316" s="9"/>
       <c r="H316" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
       <c r="K316" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L316" s="9"/>
       <c r="M316" s="8"/>
@@ -5429,12 +5429,12 @@
     <row r="317" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G317" s="9"/>
       <c r="H317" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
       <c r="K317" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L317" s="9"/>
       <c r="M317" s="8"/>
@@ -5444,12 +5444,12 @@
     <row r="318" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G318" s="9"/>
       <c r="H318" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I318" s="9"/>
       <c r="J318" s="9"/>
       <c r="K318" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L318" s="9"/>
       <c r="M318" s="8"/>
@@ -5459,12 +5459,12 @@
     <row r="319" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G319" s="9"/>
       <c r="H319" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I319" s="9"/>
       <c r="J319" s="9"/>
       <c r="K319" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L319" s="9"/>
       <c r="M319" s="8"/>
@@ -5474,12 +5474,12 @@
     <row r="320" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G320" s="9"/>
       <c r="H320" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I320" s="9"/>
       <c r="J320" s="9"/>
       <c r="K320" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L320" s="9"/>
       <c r="M320" s="8"/>
@@ -5489,12 +5489,12 @@
     <row r="321" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G321" s="9"/>
       <c r="H321" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
       <c r="K321" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L321" s="9"/>
       <c r="M321" s="8"/>
@@ -5504,12 +5504,12 @@
     <row r="322" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G322" s="9"/>
       <c r="H322" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
       <c r="K322" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L322" s="9"/>
       <c r="M322" s="8"/>
@@ -5519,12 +5519,12 @@
     <row r="323" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G323" s="9"/>
       <c r="H323" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I323" s="9"/>
       <c r="J323" s="9"/>
       <c r="K323" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L323" s="9"/>
       <c r="M323" s="8"/>
@@ -5534,12 +5534,12 @@
     <row r="324" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G324" s="9"/>
       <c r="H324" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I324" s="9"/>
       <c r="J324" s="9"/>
       <c r="K324" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L324" s="9"/>
       <c r="M324" s="8"/>
@@ -5549,12 +5549,12 @@
     <row r="325" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G325" s="9"/>
       <c r="H325" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
       <c r="K325" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L325" s="9"/>
       <c r="M325" s="8"/>
@@ -5564,12 +5564,12 @@
     <row r="326" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G326" s="9"/>
       <c r="H326" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
       <c r="K326" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L326" s="9"/>
       <c r="M326" s="8"/>
@@ -5579,12 +5579,12 @@
     <row r="327" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G327" s="9"/>
       <c r="H327" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I327" s="9"/>
       <c r="J327" s="9"/>
       <c r="K327" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L327" s="9"/>
       <c r="M327" s="8"/>
@@ -5594,12 +5594,12 @@
     <row r="328" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G328" s="9"/>
       <c r="H328" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
       <c r="K328" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L328" s="9"/>
       <c r="M328" s="8"/>
@@ -5609,12 +5609,12 @@
     <row r="329" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G329" s="9"/>
       <c r="H329" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
       <c r="K329" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L329" s="9"/>
       <c r="M329" s="8"/>
@@ -5624,12 +5624,12 @@
     <row r="330" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G330" s="9"/>
       <c r="H330" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
       <c r="K330" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L330" s="9"/>
       <c r="M330" s="8"/>
@@ -5639,12 +5639,12 @@
     <row r="331" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G331" s="9"/>
       <c r="H331" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
       <c r="K331" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L331" s="9"/>
       <c r="M331" s="8"/>
@@ -5654,12 +5654,12 @@
     <row r="332" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G332" s="9"/>
       <c r="H332" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I332" s="9"/>
       <c r="J332" s="9"/>
       <c r="K332" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L332" s="9"/>
       <c r="M332" s="8"/>
@@ -5669,12 +5669,12 @@
     <row r="333" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G333" s="9"/>
       <c r="H333" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
       <c r="K333" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L333" s="9"/>
       <c r="M333" s="8"/>
@@ -5684,12 +5684,12 @@
     <row r="334" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G334" s="9"/>
       <c r="H334" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
       <c r="K334" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L334" s="9"/>
       <c r="M334" s="8"/>
@@ -5699,12 +5699,12 @@
     <row r="335" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G335" s="9"/>
       <c r="H335" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I335" s="9"/>
       <c r="J335" s="9"/>
       <c r="K335" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L335" s="9"/>
       <c r="M335" s="8"/>
@@ -5714,12 +5714,12 @@
     <row r="336" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G336" s="9"/>
       <c r="H336" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I336" s="9"/>
       <c r="J336" s="9"/>
       <c r="K336" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L336" s="9"/>
       <c r="M336" s="8"/>
@@ -5729,12 +5729,12 @@
     <row r="337" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G337" s="9"/>
       <c r="H337" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I337" s="9"/>
       <c r="J337" s="9"/>
       <c r="K337" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L337" s="9"/>
       <c r="M337" s="8"/>
@@ -5744,12 +5744,12 @@
     <row r="338" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G338" s="9"/>
       <c r="H338" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
       <c r="K338" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L338" s="9"/>
       <c r="M338" s="8"/>
@@ -5759,12 +5759,12 @@
     <row r="339" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G339" s="9"/>
       <c r="H339" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
       <c r="K339" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L339" s="9"/>
       <c r="M339" s="8"/>
@@ -5774,12 +5774,12 @@
     <row r="340" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G340" s="9"/>
       <c r="H340" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I340" s="9"/>
       <c r="J340" s="9"/>
       <c r="K340" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L340" s="9"/>
       <c r="M340" s="8"/>
@@ -5789,12 +5789,12 @@
     <row r="341" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G341" s="9"/>
       <c r="H341" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I341" s="9"/>
       <c r="J341" s="9"/>
       <c r="K341" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L341" s="9"/>
       <c r="M341" s="8"/>
@@ -5804,12 +5804,12 @@
     <row r="342" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G342" s="9"/>
       <c r="H342" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
       <c r="K342" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L342" s="9"/>
       <c r="M342" s="8"/>
@@ -5819,12 +5819,12 @@
     <row r="343" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G343" s="9"/>
       <c r="H343" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I343" s="9"/>
       <c r="J343" s="9"/>
       <c r="K343" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L343" s="9"/>
       <c r="M343" s="8"/>
@@ -5834,12 +5834,12 @@
     <row r="344" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G344" s="9"/>
       <c r="H344" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I344" s="9"/>
       <c r="J344" s="9"/>
       <c r="K344" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L344" s="9"/>
       <c r="M344" s="8"/>
@@ -5849,12 +5849,12 @@
     <row r="345" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G345" s="9"/>
       <c r="H345" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I345" s="9"/>
       <c r="J345" s="9"/>
       <c r="K345" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L345" s="9"/>
       <c r="M345" s="8"/>
@@ -5864,12 +5864,12 @@
     <row r="346" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G346" s="9"/>
       <c r="H346" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I346" s="9"/>
       <c r="J346" s="9"/>
       <c r="K346" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L346" s="9"/>
       <c r="M346" s="8"/>
@@ -5879,12 +5879,12 @@
     <row r="347" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G347" s="9"/>
       <c r="H347" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I347" s="9"/>
       <c r="J347" s="9"/>
       <c r="K347" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L347" s="9"/>
       <c r="M347" s="8"/>
@@ -5894,12 +5894,12 @@
     <row r="348" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G348" s="9"/>
       <c r="H348" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I348" s="9"/>
       <c r="J348" s="9"/>
       <c r="K348" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L348" s="9"/>
       <c r="M348" s="8"/>
@@ -5909,12 +5909,12 @@
     <row r="349" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G349" s="9"/>
       <c r="H349" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I349" s="9"/>
       <c r="J349" s="9"/>
       <c r="K349" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L349" s="9"/>
       <c r="M349" s="8"/>
@@ -5924,12 +5924,12 @@
     <row r="350" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G350" s="9"/>
       <c r="H350" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I350" s="9"/>
       <c r="J350" s="9"/>
       <c r="K350" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L350" s="9"/>
       <c r="M350" s="8"/>
@@ -5939,12 +5939,12 @@
     <row r="351" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G351" s="9"/>
       <c r="H351" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I351" s="9"/>
       <c r="J351" s="9"/>
       <c r="K351" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L351" s="9"/>
       <c r="M351" s="8"/>
@@ -5954,12 +5954,12 @@
     <row r="352" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G352" s="9"/>
       <c r="H352" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I352" s="9"/>
       <c r="J352" s="9"/>
       <c r="K352" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L352" s="9"/>
       <c r="M352" s="8"/>
@@ -5969,12 +5969,12 @@
     <row r="353" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G353" s="9"/>
       <c r="H353" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I353" s="9"/>
       <c r="J353" s="9"/>
       <c r="K353" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L353" s="9"/>
       <c r="M353" s="8"/>
@@ -5984,12 +5984,12 @@
     <row r="354" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G354" s="9"/>
       <c r="H354" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I354" s="9"/>
       <c r="J354" s="9"/>
       <c r="K354" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L354" s="9"/>
       <c r="M354" s="8"/>
@@ -5999,12 +5999,12 @@
     <row r="355" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G355" s="9"/>
       <c r="H355" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I355" s="9"/>
       <c r="J355" s="9"/>
       <c r="K355" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L355" s="9"/>
       <c r="M355" s="8"/>
@@ -6014,12 +6014,12 @@
     <row r="356" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G356" s="9"/>
       <c r="H356" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I356" s="9"/>
       <c r="J356" s="9"/>
       <c r="K356" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L356" s="9"/>
       <c r="M356" s="8"/>
@@ -6029,12 +6029,12 @@
     <row r="357" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G357" s="9"/>
       <c r="H357" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I357" s="9"/>
       <c r="J357" s="9"/>
       <c r="K357" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L357" s="9"/>
       <c r="M357" s="8"/>
@@ -6044,12 +6044,12 @@
     <row r="358" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G358" s="9"/>
       <c r="H358" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I358" s="9"/>
       <c r="J358" s="9"/>
       <c r="K358" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L358" s="9"/>
       <c r="M358" s="8"/>
@@ -6059,12 +6059,12 @@
     <row r="359" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G359" s="9"/>
       <c r="H359" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I359" s="9"/>
       <c r="J359" s="9"/>
       <c r="K359" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L359" s="9"/>
       <c r="M359" s="8"/>
@@ -6074,12 +6074,12 @@
     <row r="360" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G360" s="9"/>
       <c r="H360" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I360" s="9"/>
       <c r="J360" s="9"/>
       <c r="K360" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L360" s="9"/>
       <c r="M360" s="8"/>
@@ -6089,12 +6089,12 @@
     <row r="361" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G361" s="9"/>
       <c r="H361" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I361" s="9"/>
       <c r="J361" s="9"/>
       <c r="K361" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L361" s="9"/>
       <c r="M361" s="8"/>
@@ -6104,12 +6104,12 @@
     <row r="362" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G362" s="9"/>
       <c r="H362" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I362" s="9"/>
       <c r="J362" s="9"/>
       <c r="K362" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L362" s="9"/>
       <c r="M362" s="8"/>
@@ -6119,12 +6119,12 @@
     <row r="363" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G363" s="9"/>
       <c r="H363" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I363" s="9"/>
       <c r="J363" s="9"/>
       <c r="K363" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L363" s="9"/>
       <c r="M363" s="8"/>
@@ -6134,12 +6134,12 @@
     <row r="364" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G364" s="9"/>
       <c r="H364" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I364" s="9"/>
       <c r="J364" s="9"/>
       <c r="K364" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L364" s="9"/>
       <c r="M364" s="8"/>
@@ -6149,12 +6149,12 @@
     <row r="365" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G365" s="9"/>
       <c r="H365" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I365" s="9"/>
       <c r="J365" s="9"/>
       <c r="K365" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L365" s="9"/>
       <c r="M365" s="8"/>
@@ -6164,12 +6164,12 @@
     <row r="366" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G366" s="9"/>
       <c r="H366" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I366" s="9"/>
       <c r="J366" s="9"/>
       <c r="K366" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L366" s="9"/>
       <c r="M366" s="8"/>
@@ -6179,12 +6179,12 @@
     <row r="367" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G367" s="9"/>
       <c r="H367" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
       <c r="K367" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L367" s="9"/>
       <c r="M367" s="8"/>
@@ -6194,12 +6194,12 @@
     <row r="368" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G368" s="9"/>
       <c r="H368" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I368" s="9"/>
       <c r="J368" s="9"/>
       <c r="K368" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L368" s="9"/>
       <c r="M368" s="8"/>
@@ -6209,12 +6209,12 @@
     <row r="369" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G369" s="9"/>
       <c r="H369" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I369" s="9"/>
       <c r="J369" s="9"/>
       <c r="K369" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L369" s="9"/>
       <c r="M369" s="8"/>
@@ -6224,12 +6224,12 @@
     <row r="370" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G370" s="9"/>
       <c r="H370" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
       <c r="K370" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L370" s="9"/>
       <c r="M370" s="8"/>
@@ -6239,12 +6239,12 @@
     <row r="371" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G371" s="9"/>
       <c r="H371" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I371" s="9"/>
       <c r="J371" s="9"/>
       <c r="K371" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L371" s="9"/>
       <c r="M371" s="8"/>
@@ -6254,12 +6254,12 @@
     <row r="372" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G372" s="9"/>
       <c r="H372" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I372" s="9"/>
       <c r="J372" s="9"/>
       <c r="K372" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L372" s="9"/>
       <c r="M372" s="8"/>
@@ -6269,12 +6269,12 @@
     <row r="373" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G373" s="9"/>
       <c r="H373" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I373" s="9"/>
       <c r="J373" s="9"/>
       <c r="K373" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L373" s="9"/>
       <c r="M373" s="8"/>
@@ -6284,12 +6284,12 @@
     <row r="374" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G374" s="9"/>
       <c r="H374" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I374" s="9"/>
       <c r="J374" s="9"/>
       <c r="K374" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L374" s="9"/>
       <c r="M374" s="8"/>
@@ -6299,12 +6299,12 @@
     <row r="375" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G375" s="9"/>
       <c r="H375" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I375" s="9"/>
       <c r="J375" s="9"/>
       <c r="K375" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L375" s="9"/>
       <c r="M375" s="8"/>
@@ -6314,12 +6314,12 @@
     <row r="376" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G376" s="9"/>
       <c r="H376" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I376" s="9"/>
       <c r="J376" s="9"/>
       <c r="K376" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L376" s="9"/>
       <c r="M376" s="8"/>
@@ -6329,12 +6329,12 @@
     <row r="377" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G377" s="9"/>
       <c r="H377" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I377" s="9"/>
       <c r="J377" s="9"/>
       <c r="K377" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L377" s="9"/>
       <c r="M377" s="8"/>
@@ -6344,12 +6344,12 @@
     <row r="378" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G378" s="9"/>
       <c r="H378" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I378" s="9"/>
       <c r="J378" s="9"/>
       <c r="K378" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L378" s="9"/>
       <c r="M378" s="8"/>
@@ -6359,12 +6359,12 @@
     <row r="379" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G379" s="9"/>
       <c r="H379" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I379" s="9"/>
       <c r="J379" s="9"/>
       <c r="K379" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L379" s="9"/>
       <c r="M379" s="8"/>
@@ -6374,12 +6374,12 @@
     <row r="380" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G380" s="9"/>
       <c r="H380" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I380" s="9"/>
       <c r="J380" s="9"/>
       <c r="K380" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L380" s="9"/>
       <c r="M380" s="8"/>
@@ -6389,12 +6389,12 @@
     <row r="381" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G381" s="9"/>
       <c r="H381" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I381" s="9"/>
       <c r="J381" s="9"/>
       <c r="K381" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L381" s="9"/>
       <c r="M381" s="8"/>
@@ -6404,12 +6404,12 @@
     <row r="382" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G382" s="9"/>
       <c r="H382" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
       <c r="K382" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L382" s="9"/>
       <c r="M382" s="8"/>
@@ -6419,12 +6419,12 @@
     <row r="383" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G383" s="9"/>
       <c r="H383" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I383" s="9"/>
       <c r="J383" s="9"/>
       <c r="K383" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L383" s="9"/>
       <c r="M383" s="8"/>
@@ -6434,12 +6434,12 @@
     <row r="384" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G384" s="9"/>
       <c r="H384" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I384" s="9"/>
       <c r="J384" s="9"/>
       <c r="K384" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L384" s="9"/>
       <c r="M384" s="8"/>
@@ -6449,12 +6449,12 @@
     <row r="385" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G385" s="9"/>
       <c r="H385" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I385" s="9"/>
       <c r="J385" s="9"/>
       <c r="K385" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L385" s="9"/>
       <c r="M385" s="8"/>
@@ -6464,12 +6464,12 @@
     <row r="386" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G386" s="9"/>
       <c r="H386" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I386" s="9"/>
       <c r="J386" s="9"/>
       <c r="K386" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L386" s="9"/>
       <c r="M386" s="8"/>
@@ -6479,12 +6479,12 @@
     <row r="387" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G387" s="9"/>
       <c r="H387" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I387" s="9"/>
       <c r="J387" s="9"/>
       <c r="K387" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L387" s="9"/>
       <c r="M387" s="8"/>
@@ -6494,12 +6494,12 @@
     <row r="388" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G388" s="9"/>
       <c r="H388" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I388" s="9"/>
       <c r="J388" s="9"/>
       <c r="K388" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L388" s="9"/>
       <c r="M388" s="8"/>
@@ -6509,12 +6509,12 @@
     <row r="389" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G389" s="9"/>
       <c r="H389" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I389" s="9"/>
       <c r="J389" s="9"/>
       <c r="K389" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L389" s="9"/>
       <c r="M389" s="8"/>
@@ -6524,12 +6524,12 @@
     <row r="390" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G390" s="9"/>
       <c r="H390" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I390" s="9"/>
       <c r="J390" s="9"/>
       <c r="K390" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L390" s="9"/>
       <c r="M390" s="8"/>
@@ -6539,12 +6539,12 @@
     <row r="391" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G391" s="9"/>
       <c r="H391" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I391" s="9"/>
       <c r="J391" s="9"/>
       <c r="K391" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L391" s="9"/>
       <c r="M391" s="8"/>
@@ -6554,12 +6554,12 @@
     <row r="392" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G392" s="9"/>
       <c r="H392" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I392" s="9"/>
       <c r="J392" s="9"/>
       <c r="K392" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L392" s="9"/>
       <c r="M392" s="8"/>
@@ -6569,12 +6569,12 @@
     <row r="393" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G393" s="9"/>
       <c r="H393" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I393" s="9"/>
       <c r="J393" s="9"/>
       <c r="K393" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L393" s="9"/>
       <c r="M393" s="8"/>
@@ -6584,12 +6584,12 @@
     <row r="394" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G394" s="9"/>
       <c r="H394" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I394" s="9"/>
       <c r="J394" s="9"/>
       <c r="K394" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L394" s="9"/>
       <c r="M394" s="8"/>
@@ -6599,12 +6599,12 @@
     <row r="395" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G395" s="9"/>
       <c r="H395" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I395" s="9"/>
       <c r="J395" s="9"/>
       <c r="K395" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L395" s="9"/>
       <c r="M395" s="8"/>
@@ -6614,12 +6614,12 @@
     <row r="396" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G396" s="9"/>
       <c r="H396" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I396" s="9"/>
       <c r="J396" s="9"/>
       <c r="K396" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L396" s="9"/>
       <c r="M396" s="8"/>
@@ -6629,12 +6629,12 @@
     <row r="397" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G397" s="9"/>
       <c r="H397" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I397" s="9"/>
       <c r="J397" s="9"/>
       <c r="K397" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L397" s="9"/>
       <c r="M397" s="8"/>
@@ -6644,12 +6644,12 @@
     <row r="398" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G398" s="9"/>
       <c r="H398" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I398" s="9"/>
       <c r="J398" s="9"/>
       <c r="K398" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L398" s="9"/>
       <c r="M398" s="8"/>
@@ -6659,12 +6659,12 @@
     <row r="399" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G399" s="9"/>
       <c r="H399" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I399" s="9"/>
       <c r="J399" s="9"/>
       <c r="K399" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L399" s="9"/>
       <c r="M399" s="8"/>
@@ -6674,12 +6674,12 @@
     <row r="400" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G400" s="9"/>
       <c r="H400" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I400" s="9"/>
       <c r="J400" s="9"/>
       <c r="K400" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L400" s="9"/>
       <c r="M400" s="8"/>
@@ -6689,12 +6689,12 @@
     <row r="401" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G401" s="9"/>
       <c r="H401" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I401" s="9"/>
       <c r="J401" s="9"/>
       <c r="K401" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L401" s="9"/>
       <c r="M401" s="8"/>
@@ -6704,12 +6704,12 @@
     <row r="402" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G402" s="9"/>
       <c r="H402" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I402" s="9"/>
       <c r="J402" s="9"/>
       <c r="K402" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L402" s="9"/>
       <c r="M402" s="8"/>
@@ -6719,12 +6719,12 @@
     <row r="403" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G403" s="9"/>
       <c r="H403" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
       <c r="K403" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L403" s="9"/>
       <c r="M403" s="8"/>
@@ -6734,12 +6734,12 @@
     <row r="404" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G404" s="9"/>
       <c r="H404" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I404" s="9"/>
       <c r="J404" s="9"/>
       <c r="K404" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L404" s="9"/>
       <c r="M404" s="8"/>
@@ -6749,12 +6749,12 @@
     <row r="405" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G405" s="9"/>
       <c r="H405" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
       <c r="K405" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L405" s="9"/>
       <c r="M405" s="8"/>
@@ -6764,12 +6764,12 @@
     <row r="406" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G406" s="9"/>
       <c r="H406" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I406" s="9"/>
       <c r="J406" s="9"/>
       <c r="K406" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L406" s="9"/>
       <c r="M406" s="8"/>
@@ -6779,12 +6779,12 @@
     <row r="407" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G407" s="9"/>
       <c r="H407" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
       <c r="K407" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L407" s="9"/>
       <c r="M407" s="8"/>
@@ -6794,12 +6794,12 @@
     <row r="408" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G408" s="9"/>
       <c r="H408" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
       <c r="K408" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L408" s="9"/>
       <c r="M408" s="8"/>
@@ -6809,12 +6809,12 @@
     <row r="409" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G409" s="9"/>
       <c r="H409" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I409" s="9"/>
       <c r="J409" s="9"/>
       <c r="K409" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L409" s="9"/>
       <c r="M409" s="8"/>
@@ -6824,12 +6824,12 @@
     <row r="410" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G410" s="9"/>
       <c r="H410" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I410" s="9"/>
       <c r="J410" s="9"/>
       <c r="K410" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L410" s="9"/>
       <c r="M410" s="8"/>
@@ -6839,12 +6839,12 @@
     <row r="411" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G411" s="9"/>
       <c r="H411" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I411" s="9"/>
       <c r="J411" s="9"/>
       <c r="K411" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L411" s="9"/>
       <c r="M411" s="8"/>
@@ -6854,12 +6854,12 @@
     <row r="412" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G412" s="9"/>
       <c r="H412" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I412" s="9"/>
       <c r="J412" s="9"/>
       <c r="K412" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L412" s="9"/>
       <c r="M412" s="8"/>
@@ -6869,12 +6869,12 @@
     <row r="413" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G413" s="9"/>
       <c r="H413" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I413" s="9"/>
       <c r="J413" s="9"/>
       <c r="K413" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L413" s="9"/>
       <c r="M413" s="8"/>
@@ -6884,12 +6884,12 @@
     <row r="414" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G414" s="9"/>
       <c r="H414" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I414" s="9"/>
       <c r="J414" s="9"/>
       <c r="K414" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L414" s="9"/>
       <c r="M414" s="8"/>
@@ -6899,12 +6899,12 @@
     <row r="415" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G415" s="9"/>
       <c r="H415" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I415" s="9"/>
       <c r="J415" s="9"/>
       <c r="K415" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L415" s="9"/>
       <c r="M415" s="8"/>
@@ -6914,12 +6914,12 @@
     <row r="416" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G416" s="9"/>
       <c r="H416" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I416" s="9"/>
       <c r="J416" s="9"/>
       <c r="K416" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L416" s="9"/>
       <c r="M416" s="8"/>
@@ -6929,12 +6929,12 @@
     <row r="417" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G417" s="9"/>
       <c r="H417" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I417" s="9"/>
       <c r="J417" s="9"/>
       <c r="K417" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L417" s="9"/>
       <c r="M417" s="8"/>
@@ -6944,12 +6944,12 @@
     <row r="418" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G418" s="9"/>
       <c r="H418" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I418" s="9"/>
       <c r="J418" s="9"/>
       <c r="K418" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L418" s="9"/>
       <c r="M418" s="8"/>
@@ -6959,12 +6959,12 @@
     <row r="419" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G419" s="9"/>
       <c r="H419" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I419" s="9"/>
       <c r="J419" s="9"/>
       <c r="K419" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L419" s="9"/>
       <c r="M419" s="8"/>
@@ -6974,12 +6974,12 @@
     <row r="420" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G420" s="9"/>
       <c r="H420" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I420" s="9"/>
       <c r="J420" s="9"/>
       <c r="K420" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L420" s="9"/>
       <c r="M420" s="8"/>
@@ -6989,12 +6989,12 @@
     <row r="421" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G421" s="9"/>
       <c r="H421" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I421" s="9"/>
       <c r="J421" s="9"/>
       <c r="K421" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L421" s="9"/>
       <c r="M421" s="8"/>
@@ -7004,12 +7004,12 @@
     <row r="422" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G422" s="9"/>
       <c r="H422" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I422" s="9"/>
       <c r="J422" s="9"/>
       <c r="K422" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L422" s="9"/>
       <c r="M422" s="8"/>
@@ -7019,12 +7019,12 @@
     <row r="423" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G423" s="9"/>
       <c r="H423" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I423" s="9"/>
       <c r="J423" s="9"/>
       <c r="K423" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L423" s="9"/>
       <c r="M423" s="8"/>
@@ -7034,12 +7034,12 @@
     <row r="424" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G424" s="9"/>
       <c r="H424" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I424" s="9"/>
       <c r="J424" s="9"/>
       <c r="K424" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L424" s="9"/>
       <c r="M424" s="8"/>
@@ -7049,12 +7049,12 @@
     <row r="425" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G425" s="9"/>
       <c r="H425" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I425" s="9"/>
       <c r="J425" s="9"/>
       <c r="K425" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L425" s="9"/>
       <c r="M425" s="8"/>
@@ -7064,12 +7064,12 @@
     <row r="426" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G426" s="9"/>
       <c r="H426" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I426" s="9"/>
       <c r="J426" s="9"/>
       <c r="K426" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L426" s="9"/>
       <c r="M426" s="8"/>
@@ -7079,12 +7079,12 @@
     <row r="427" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G427" s="9"/>
       <c r="H427" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I427" s="9"/>
       <c r="J427" s="9"/>
       <c r="K427" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L427" s="9"/>
       <c r="M427" s="8"/>
@@ -7094,12 +7094,12 @@
     <row r="428" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G428" s="9"/>
       <c r="H428" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I428" s="9"/>
       <c r="J428" s="9"/>
       <c r="K428" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L428" s="9"/>
       <c r="M428" s="8"/>
@@ -7109,12 +7109,12 @@
     <row r="429" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G429" s="9"/>
       <c r="H429" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I429" s="9"/>
       <c r="J429" s="9"/>
       <c r="K429" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L429" s="9"/>
       <c r="M429" s="8"/>
@@ -7124,12 +7124,12 @@
     <row r="430" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G430" s="9"/>
       <c r="H430" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I430" s="9"/>
       <c r="J430" s="9"/>
       <c r="K430" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L430" s="9"/>
       <c r="M430" s="8"/>
@@ -7139,12 +7139,12 @@
     <row r="431" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G431" s="9"/>
       <c r="H431" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I431" s="9"/>
       <c r="J431" s="9"/>
       <c r="K431" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L431" s="9"/>
       <c r="M431" s="8"/>
@@ -7154,12 +7154,12 @@
     <row r="432" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G432" s="9"/>
       <c r="H432" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I432" s="9"/>
       <c r="J432" s="9"/>
       <c r="K432" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L432" s="9"/>
       <c r="M432" s="8"/>
@@ -7169,12 +7169,12 @@
     <row r="433" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G433" s="9"/>
       <c r="H433" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I433" s="9"/>
       <c r="J433" s="9"/>
       <c r="K433" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L433" s="9"/>
       <c r="M433" s="8"/>
@@ -7184,12 +7184,12 @@
     <row r="434" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G434" s="9"/>
       <c r="H434" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I434" s="9"/>
       <c r="J434" s="9"/>
       <c r="K434" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L434" s="9"/>
       <c r="M434" s="8"/>
@@ -7199,12 +7199,12 @@
     <row r="435" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G435" s="9"/>
       <c r="H435" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I435" s="9"/>
       <c r="J435" s="9"/>
       <c r="K435" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L435" s="9"/>
       <c r="M435" s="8"/>
@@ -7214,12 +7214,12 @@
     <row r="436" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G436" s="9"/>
       <c r="H436" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I436" s="9"/>
       <c r="J436" s="9"/>
       <c r="K436" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L436" s="9"/>
       <c r="M436" s="8"/>
@@ -7229,12 +7229,12 @@
     <row r="437" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G437" s="9"/>
       <c r="H437" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I437" s="9"/>
       <c r="J437" s="9"/>
       <c r="K437" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L437" s="9"/>
       <c r="M437" s="8"/>
@@ -7244,12 +7244,12 @@
     <row r="438" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G438" s="9"/>
       <c r="H438" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I438" s="9"/>
       <c r="J438" s="9"/>
       <c r="K438" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L438" s="9"/>
       <c r="M438" s="8"/>
@@ -7259,12 +7259,12 @@
     <row r="439" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G439" s="9"/>
       <c r="H439" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I439" s="9"/>
       <c r="J439" s="9"/>
       <c r="K439" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L439" s="9"/>
       <c r="M439" s="8"/>
@@ -7274,12 +7274,12 @@
     <row r="440" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G440" s="9"/>
       <c r="H440" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I440" s="9"/>
       <c r="J440" s="9"/>
       <c r="K440" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L440" s="9"/>
       <c r="M440" s="8"/>
@@ -7289,12 +7289,12 @@
     <row r="441" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G441" s="9"/>
       <c r="H441" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I441" s="9"/>
       <c r="J441" s="9"/>
       <c r="K441" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L441" s="9"/>
       <c r="M441" s="8"/>
@@ -7304,12 +7304,12 @@
     <row r="442" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G442" s="9"/>
       <c r="H442" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I442" s="9"/>
       <c r="J442" s="9"/>
       <c r="K442" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L442" s="9"/>
       <c r="M442" s="8"/>
@@ -7319,12 +7319,12 @@
     <row r="443" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G443" s="9"/>
       <c r="H443" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I443" s="9"/>
       <c r="J443" s="9"/>
       <c r="K443" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L443" s="9"/>
       <c r="M443" s="8"/>
@@ -7334,12 +7334,12 @@
     <row r="444" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G444" s="9"/>
       <c r="H444" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I444" s="9"/>
       <c r="J444" s="9"/>
       <c r="K444" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L444" s="9"/>
       <c r="M444" s="8"/>
@@ -7349,12 +7349,12 @@
     <row r="445" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G445" s="9"/>
       <c r="H445" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I445" s="9"/>
       <c r="J445" s="9"/>
       <c r="K445" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L445" s="9"/>
       <c r="M445" s="8"/>
@@ -7364,12 +7364,12 @@
     <row r="446" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G446" s="9"/>
       <c r="H446" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I446" s="9"/>
       <c r="J446" s="9"/>
       <c r="K446" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L446" s="9"/>
       <c r="M446" s="8"/>
@@ -7379,12 +7379,12 @@
     <row r="447" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G447" s="9"/>
       <c r="H447" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I447" s="9"/>
       <c r="J447" s="9"/>
       <c r="K447" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L447" s="9"/>
       <c r="M447" s="8"/>
@@ -7394,12 +7394,12 @@
     <row r="448" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G448" s="9"/>
       <c r="H448" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I448" s="9"/>
       <c r="J448" s="9"/>
       <c r="K448" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L448" s="9"/>
       <c r="M448" s="8"/>
@@ -7409,12 +7409,12 @@
     <row r="449" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G449" s="9"/>
       <c r="H449" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I449" s="9"/>
       <c r="J449" s="9"/>
       <c r="K449" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L449" s="9"/>
       <c r="M449" s="8"/>
@@ -7424,12 +7424,12 @@
     <row r="450" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G450" s="9"/>
       <c r="H450" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I450" s="9"/>
       <c r="J450" s="9"/>
       <c r="K450" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L450" s="9"/>
       <c r="M450" s="8"/>
@@ -7439,12 +7439,12 @@
     <row r="451" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G451" s="9"/>
       <c r="H451" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I451" s="9"/>
       <c r="J451" s="9"/>
       <c r="K451" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L451" s="9"/>
       <c r="M451" s="8"/>
@@ -7454,12 +7454,12 @@
     <row r="452" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G452" s="9"/>
       <c r="H452" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I452" s="9"/>
       <c r="J452" s="9"/>
       <c r="K452" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L452" s="9"/>
       <c r="M452" s="8"/>
@@ -7469,12 +7469,12 @@
     <row r="453" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G453" s="9"/>
       <c r="H453" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I453" s="9"/>
       <c r="J453" s="9"/>
       <c r="K453" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L453" s="9"/>
       <c r="M453" s="8"/>
@@ -7484,12 +7484,12 @@
     <row r="454" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G454" s="9"/>
       <c r="H454" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I454" s="9"/>
       <c r="J454" s="9"/>
       <c r="K454" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L454" s="9"/>
       <c r="M454" s="8"/>
@@ -7499,12 +7499,12 @@
     <row r="455" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G455" s="9"/>
       <c r="H455" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I455" s="9"/>
       <c r="J455" s="9"/>
       <c r="K455" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L455" s="9"/>
       <c r="M455" s="8"/>
@@ -7514,12 +7514,12 @@
     <row r="456" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G456" s="9"/>
       <c r="H456" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I456" s="9"/>
       <c r="J456" s="9"/>
       <c r="K456" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L456" s="9"/>
       <c r="M456" s="8"/>
@@ -7529,12 +7529,12 @@
     <row r="457" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G457" s="9"/>
       <c r="H457" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I457" s="9"/>
       <c r="J457" s="9"/>
       <c r="K457" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L457" s="9"/>
       <c r="M457" s="8"/>
@@ -7544,12 +7544,12 @@
     <row r="458" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G458" s="9"/>
       <c r="H458" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I458" s="9"/>
       <c r="J458" s="9"/>
       <c r="K458" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L458" s="9"/>
       <c r="M458" s="8"/>
@@ -7559,12 +7559,12 @@
     <row r="459" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G459" s="9"/>
       <c r="H459" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I459" s="9"/>
       <c r="J459" s="9"/>
       <c r="K459" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L459" s="9"/>
       <c r="M459" s="8"/>
@@ -7574,12 +7574,12 @@
     <row r="460" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G460" s="9"/>
       <c r="H460" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I460" s="9"/>
       <c r="J460" s="9"/>
       <c r="K460" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L460" s="9"/>
       <c r="M460" s="8"/>
@@ -7589,12 +7589,12 @@
     <row r="461" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G461" s="9"/>
       <c r="H461" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I461" s="9"/>
       <c r="J461" s="9"/>
       <c r="K461" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L461" s="9"/>
       <c r="M461" s="8"/>
@@ -7604,12 +7604,12 @@
     <row r="462" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G462" s="9"/>
       <c r="H462" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I462" s="9"/>
       <c r="J462" s="9"/>
       <c r="K462" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L462" s="9"/>
       <c r="M462" s="8"/>
@@ -7619,12 +7619,12 @@
     <row r="463" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G463" s="9"/>
       <c r="H463" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I463" s="9"/>
       <c r="J463" s="9"/>
       <c r="K463" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L463" s="9"/>
       <c r="M463" s="8"/>
@@ -7634,12 +7634,12 @@
     <row r="464" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G464" s="9"/>
       <c r="H464" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I464" s="9"/>
       <c r="J464" s="9"/>
       <c r="K464" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L464" s="9"/>
       <c r="M464" s="8"/>
@@ -7649,12 +7649,12 @@
     <row r="465" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G465" s="9"/>
       <c r="H465" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I465" s="9"/>
       <c r="J465" s="9"/>
       <c r="K465" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L465" s="9"/>
       <c r="M465" s="8"/>
@@ -7664,12 +7664,12 @@
     <row r="466" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G466" s="9"/>
       <c r="H466" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I466" s="9"/>
       <c r="J466" s="9"/>
       <c r="K466" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L466" s="9"/>
       <c r="M466" s="8"/>
@@ -7679,12 +7679,12 @@
     <row r="467" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G467" s="9"/>
       <c r="H467" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I467" s="9"/>
       <c r="J467" s="9"/>
       <c r="K467" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L467" s="9"/>
       <c r="M467" s="8"/>
@@ -7694,12 +7694,12 @@
     <row r="468" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G468" s="9"/>
       <c r="H468" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I468" s="9"/>
       <c r="J468" s="9"/>
       <c r="K468" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L468" s="9"/>
       <c r="M468" s="8"/>
@@ -7709,12 +7709,12 @@
     <row r="469" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G469" s="9"/>
       <c r="H469" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I469" s="9"/>
       <c r="J469" s="9"/>
       <c r="K469" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L469" s="9"/>
       <c r="M469" s="8"/>
@@ -7724,12 +7724,12 @@
     <row r="470" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G470" s="9"/>
       <c r="H470" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I470" s="9"/>
       <c r="J470" s="9"/>
       <c r="K470" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L470" s="9"/>
       <c r="M470" s="8"/>
@@ -7739,12 +7739,12 @@
     <row r="471" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G471" s="9"/>
       <c r="H471" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I471" s="9"/>
       <c r="J471" s="9"/>
       <c r="K471" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L471" s="9"/>
       <c r="M471" s="8"/>
@@ -7754,12 +7754,12 @@
     <row r="472" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G472" s="9"/>
       <c r="H472" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I472" s="9"/>
       <c r="J472" s="9"/>
       <c r="K472" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L472" s="9"/>
       <c r="M472" s="8"/>
@@ -7769,12 +7769,12 @@
     <row r="473" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G473" s="9"/>
       <c r="H473" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I473" s="9"/>
       <c r="J473" s="9"/>
       <c r="K473" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L473" s="9"/>
       <c r="M473" s="8"/>
@@ -7784,12 +7784,12 @@
     <row r="474" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G474" s="9"/>
       <c r="H474" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I474" s="9"/>
       <c r="J474" s="9"/>
       <c r="K474" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L474" s="9"/>
       <c r="M474" s="8"/>
@@ -7799,12 +7799,12 @@
     <row r="475" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G475" s="9"/>
       <c r="H475" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I475" s="9"/>
       <c r="J475" s="9"/>
       <c r="K475" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L475" s="9"/>
       <c r="M475" s="8"/>
@@ -7814,12 +7814,12 @@
     <row r="476" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G476" s="9"/>
       <c r="H476" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I476" s="9"/>
       <c r="J476" s="9"/>
       <c r="K476" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L476" s="9"/>
       <c r="M476" s="8"/>
@@ -7829,12 +7829,12 @@
     <row r="477" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G477" s="9"/>
       <c r="H477" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I477" s="9"/>
       <c r="J477" s="9"/>
       <c r="K477" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L477" s="9"/>
       <c r="M477" s="8"/>
@@ -7844,12 +7844,12 @@
     <row r="478" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G478" s="9"/>
       <c r="H478" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I478" s="9"/>
       <c r="J478" s="9"/>
       <c r="K478" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L478" s="9"/>
       <c r="M478" s="8"/>
@@ -7859,12 +7859,12 @@
     <row r="479" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G479" s="9"/>
       <c r="H479" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I479" s="9"/>
       <c r="J479" s="9"/>
       <c r="K479" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L479" s="9"/>
       <c r="M479" s="8"/>
@@ -7874,12 +7874,12 @@
     <row r="480" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G480" s="9"/>
       <c r="H480" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I480" s="9"/>
       <c r="J480" s="9"/>
       <c r="K480" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L480" s="9"/>
       <c r="M480" s="8"/>
@@ -7889,12 +7889,12 @@
     <row r="481" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G481" s="9"/>
       <c r="H481" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I481" s="9"/>
       <c r="J481" s="9"/>
       <c r="K481" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L481" s="9"/>
       <c r="M481" s="8"/>
@@ -7904,12 +7904,12 @@
     <row r="482" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G482" s="9"/>
       <c r="H482" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I482" s="9"/>
       <c r="J482" s="9"/>
       <c r="K482" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L482" s="9"/>
       <c r="M482" s="8"/>
@@ -7919,12 +7919,12 @@
     <row r="483" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G483" s="9"/>
       <c r="H483" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I483" s="9"/>
       <c r="J483" s="9"/>
       <c r="K483" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L483" s="9"/>
       <c r="M483" s="8"/>
@@ -7934,12 +7934,12 @@
     <row r="484" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G484" s="9"/>
       <c r="H484" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I484" s="9"/>
       <c r="J484" s="9"/>
       <c r="K484" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L484" s="9"/>
       <c r="M484" s="8"/>
@@ -7949,12 +7949,12 @@
     <row r="485" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G485" s="9"/>
       <c r="H485" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I485" s="9"/>
       <c r="J485" s="9"/>
       <c r="K485" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L485" s="9"/>
       <c r="M485" s="8"/>
@@ -7964,12 +7964,12 @@
     <row r="486" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G486" s="9"/>
       <c r="H486" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I486" s="9"/>
       <c r="J486" s="9"/>
       <c r="K486" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L486" s="9"/>
       <c r="M486" s="8"/>
@@ -7979,12 +7979,12 @@
     <row r="487" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G487" s="9"/>
       <c r="H487" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I487" s="9"/>
       <c r="J487" s="9"/>
       <c r="K487" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L487" s="9"/>
       <c r="M487" s="8"/>
@@ -7994,12 +7994,12 @@
     <row r="488" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G488" s="9"/>
       <c r="H488" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I488" s="9"/>
       <c r="J488" s="9"/>
       <c r="K488" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L488" s="9"/>
       <c r="M488" s="8"/>
@@ -8009,12 +8009,12 @@
     <row r="489" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G489" s="9"/>
       <c r="H489" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I489" s="9"/>
       <c r="J489" s="9"/>
       <c r="K489" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L489" s="9"/>
       <c r="M489" s="8"/>
@@ -8024,12 +8024,12 @@
     <row r="490" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G490" s="9"/>
       <c r="H490" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I490" s="9"/>
       <c r="J490" s="9"/>
       <c r="K490" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L490" s="9"/>
       <c r="M490" s="8"/>
@@ -8039,12 +8039,12 @@
     <row r="491" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G491" s="9"/>
       <c r="H491" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I491" s="9"/>
       <c r="J491" s="9"/>
       <c r="K491" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L491" s="9"/>
       <c r="M491" s="8"/>
@@ -8054,12 +8054,12 @@
     <row r="492" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G492" s="9"/>
       <c r="H492" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I492" s="9"/>
       <c r="J492" s="9"/>
       <c r="K492" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L492" s="9"/>
       <c r="M492" s="8"/>
@@ -8069,12 +8069,12 @@
     <row r="493" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G493" s="9"/>
       <c r="H493" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I493" s="9"/>
       <c r="J493" s="9"/>
       <c r="K493" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L493" s="9"/>
       <c r="M493" s="8"/>
@@ -8084,12 +8084,12 @@
     <row r="494" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G494" s="9"/>
       <c r="H494" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I494" s="9"/>
       <c r="J494" s="9"/>
       <c r="K494" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L494" s="9"/>
       <c r="M494" s="8"/>
@@ -8099,12 +8099,12 @@
     <row r="495" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G495" s="9"/>
       <c r="H495" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I495" s="9"/>
       <c r="J495" s="9"/>
       <c r="K495" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L495" s="9"/>
       <c r="M495" s="8"/>
@@ -8114,12 +8114,12 @@
     <row r="496" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G496" s="9"/>
       <c r="H496" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I496" s="9"/>
       <c r="J496" s="9"/>
       <c r="K496" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L496" s="9"/>
       <c r="M496" s="8"/>
@@ -8129,12 +8129,12 @@
     <row r="497" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G497" s="9"/>
       <c r="H497" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I497" s="9"/>
       <c r="J497" s="9"/>
       <c r="K497" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L497" s="9"/>
       <c r="M497" s="8"/>
@@ -8144,12 +8144,12 @@
     <row r="498" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G498" s="9"/>
       <c r="H498" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I498" s="9"/>
       <c r="J498" s="9"/>
       <c r="K498" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L498" s="9"/>
       <c r="M498" s="8"/>
@@ -8159,12 +8159,12 @@
     <row r="499" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G499" s="9"/>
       <c r="H499" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I499" s="9"/>
       <c r="J499" s="9"/>
       <c r="K499" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L499" s="9"/>
       <c r="M499" s="8"/>
@@ -8174,12 +8174,12 @@
     <row r="500" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G500" s="9"/>
       <c r="H500" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I500" s="9"/>
       <c r="J500" s="9"/>
       <c r="K500" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L500" s="9"/>
       <c r="M500" s="8"/>
@@ -8189,12 +8189,12 @@
     <row r="501" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G501" s="9"/>
       <c r="H501" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I501" s="9"/>
       <c r="J501" s="9"/>
       <c r="K501" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L501" s="9"/>
       <c r="M501" s="8"/>
@@ -8204,12 +8204,12 @@
     <row r="502" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G502" s="9"/>
       <c r="H502" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I502" s="9"/>
       <c r="J502" s="9"/>
       <c r="K502" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L502" s="9"/>
       <c r="M502" s="8"/>
@@ -8219,12 +8219,12 @@
     <row r="503" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G503" s="9"/>
       <c r="H503" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I503" s="9"/>
       <c r="J503" s="9"/>
       <c r="K503" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L503" s="9"/>
       <c r="M503" s="8"/>
@@ -8234,12 +8234,12 @@
     <row r="504" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G504" s="9"/>
       <c r="H504" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I504" s="9"/>
       <c r="J504" s="9"/>
       <c r="K504" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L504" s="9"/>
       <c r="M504" s="8"/>
@@ -8249,12 +8249,12 @@
     <row r="505" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G505" s="9"/>
       <c r="H505" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I505" s="9"/>
       <c r="J505" s="9"/>
       <c r="K505" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L505" s="9"/>
       <c r="M505" s="8"/>
@@ -8264,12 +8264,12 @@
     <row r="506" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G506" s="9"/>
       <c r="H506" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I506" s="9"/>
       <c r="J506" s="9"/>
       <c r="K506" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L506" s="9"/>
       <c r="M506" s="8"/>
@@ -8279,12 +8279,12 @@
     <row r="507" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G507" s="9"/>
       <c r="H507" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I507" s="9"/>
       <c r="J507" s="9"/>
       <c r="K507" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L507" s="9"/>
       <c r="M507" s="8"/>
@@ -8294,12 +8294,12 @@
     <row r="508" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G508" s="9"/>
       <c r="H508" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I508" s="9"/>
       <c r="J508" s="9"/>
       <c r="K508" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L508" s="9"/>
       <c r="M508" s="8"/>
@@ -8348,16 +8348,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
@@ -8377,7 +8377,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8387,7 +8387,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -8397,7 +8397,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -8407,7 +8407,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -8417,7 +8417,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8427,7 +8427,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8437,7 +8437,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8447,7 +8447,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8457,7 +8457,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -8467,7 +8467,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8477,7 +8477,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -8487,7 +8487,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -8497,7 +8497,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -8507,7 +8507,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -8517,7 +8517,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -8527,7 +8527,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -8537,7 +8537,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -8547,7 +8547,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -8557,7 +8557,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -8567,7 +8567,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -8577,7 +8577,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -8587,7 +8587,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3">
         <v>44230.090729166666</v>
@@ -8601,7 +8601,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3">
         <v>44230.122349537036</v>
@@ -8638,17 +8638,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
